--- a/Week8Workshop/data_b.xlsx
+++ b/Week8Workshop/data_b.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89c28a219330537b/University/2022 Semester 1/PHYS1101/Physics-Python-Code/Week8Workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2973108-C39A-410B-9F63-5659E1C7F04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{D2973108-C39A-410B-9F63-5659E1C7F04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB49D963-F189-4DED-8137-3B2711C788DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Month</t>
   </si>
@@ -30,11 +42,17 @@
   <si>
     <t>Blackbeard</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,12 +886,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -996,6 +1019,32 @@
         <v>125</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>99.9</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>122.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>13.232157798333574</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <v>19.485635735074183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
